--- a/Code/Results/Cases/Case_0_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_204/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3645174145741521</v>
+        <v>0.195850223101047</v>
       </c>
       <c r="D2">
-        <v>0.5788626599062638</v>
+        <v>0.1172342349564417</v>
       </c>
       <c r="E2">
-        <v>0.02212807280378648</v>
+        <v>0.06542532866897943</v>
       </c>
       <c r="F2">
-        <v>18.74657109982758</v>
+        <v>8.797736409583138</v>
       </c>
       <c r="G2">
-        <v>0.0005750084628317641</v>
+        <v>0.002621317206611285</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.78897146611317</v>
+        <v>5.987256124705027</v>
       </c>
       <c r="J2">
-        <v>0.4850405945516201</v>
+        <v>0.2975686261524544</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2935744038253461</v>
+        <v>0.1894650465831376</v>
       </c>
       <c r="D3">
-        <v>0.4585427534843802</v>
+        <v>0.1015593299188424</v>
       </c>
       <c r="E3">
-        <v>0.0212836902132949</v>
+        <v>0.06589401896875469</v>
       </c>
       <c r="F3">
-        <v>15.09241075569719</v>
+        <v>8.431914133496775</v>
       </c>
       <c r="G3">
-        <v>0.0006253492273686767</v>
+        <v>0.002639233995556186</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.07544190007721</v>
+        <v>5.707567514090073</v>
       </c>
       <c r="J3">
-        <v>0.3940305692083541</v>
+        <v>0.2896717718495267</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2576827267457276</v>
+        <v>0.1857308733915488</v>
       </c>
       <c r="D4">
-        <v>0.3969260940049963</v>
+        <v>0.09201031273008198</v>
       </c>
       <c r="E4">
-        <v>0.02093106183788151</v>
+        <v>0.06621019150026708</v>
       </c>
       <c r="F4">
-        <v>13.22628080958589</v>
+        <v>8.215872885662236</v>
       </c>
       <c r="G4">
-        <v>0.0006531301128044554</v>
+        <v>0.002650734124033312</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.68863824455741</v>
+        <v>5.541798128588084</v>
       </c>
       <c r="J4">
-        <v>0.3477529338915275</v>
+        <v>0.2850930252608634</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2442629098711393</v>
+        <v>0.1842546618158849</v>
       </c>
       <c r="D5">
-        <v>0.3737214016550183</v>
+        <v>0.08813564783315542</v>
       </c>
       <c r="E5">
-        <v>0.02081615976441409</v>
+        <v>0.06634616491361545</v>
       </c>
       <c r="F5">
-        <v>12.52545768250997</v>
+        <v>8.129920768793681</v>
       </c>
       <c r="G5">
-        <v>0.0006640124099898817</v>
+        <v>0.002655547100596732</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.167582561802448</v>
+        <v>5.47569267211523</v>
       </c>
       <c r="J5">
-        <v>0.3304170350926938</v>
+        <v>0.2832932862341551</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2420939725041791</v>
+        <v>0.1840122468705658</v>
       </c>
       <c r="D6">
-        <v>0.3699613863124256</v>
+        <v>0.08749320094126745</v>
       </c>
       <c r="E6">
-        <v>0.02079857606876612</v>
+        <v>0.06636917360724226</v>
       </c>
       <c r="F6">
-        <v>12.41202803224598</v>
+        <v>8.115772511589796</v>
       </c>
       <c r="G6">
-        <v>0.0006657994264611492</v>
+        <v>0.002656353967422469</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.083234364814587</v>
+        <v>5.464801821958417</v>
       </c>
       <c r="J6">
-        <v>0.3276136796730782</v>
+        <v>0.2829983857939453</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2574975013555303</v>
+        <v>0.1857107822452519</v>
       </c>
       <c r="D7">
-        <v>0.3966064850027351</v>
+        <v>0.0919579933030974</v>
       </c>
       <c r="E7">
-        <v>0.02092940726542558</v>
+        <v>0.06621199642546749</v>
       </c>
       <c r="F7">
-        <v>13.21661937337075</v>
+        <v>8.21470534769594</v>
       </c>
       <c r="G7">
-        <v>0.0006532783399255671</v>
+        <v>0.002650798519708827</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.681456042901345</v>
+        <v>5.540900815911385</v>
       </c>
       <c r="J7">
-        <v>0.3475137696538297</v>
+        <v>0.2850684878173979</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3378394619941503</v>
+        <v>0.1936090963423283</v>
       </c>
       <c r="D8">
-        <v>0.5338098751152529</v>
+        <v>0.1118124364938069</v>
       </c>
       <c r="E8">
-        <v>0.02179143460901578</v>
+        <v>0.06558103358790834</v>
       </c>
       <c r="F8">
-        <v>17.37777125376778</v>
+        <v>8.66977812463756</v>
       </c>
       <c r="G8">
-        <v>0.0005933160461988329</v>
+        <v>0.002627391967418093</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.77277773885135</v>
+        <v>5.889550416796624</v>
       </c>
       <c r="J8">
-        <v>0.4508969314012603</v>
+        <v>0.2947886871179577</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3378394619941503</v>
+        <v>0.2106414648431496</v>
       </c>
       <c r="D9">
-        <v>0.5338098751152529</v>
+        <v>0.1514564176476085</v>
       </c>
       <c r="E9">
-        <v>0.02179143460901578</v>
+        <v>0.0645695280185361</v>
       </c>
       <c r="F9">
-        <v>17.37777125376778</v>
+        <v>9.633548469433379</v>
       </c>
       <c r="G9">
-        <v>0.0005933160461988329</v>
+        <v>0.002585402634298316</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.77277773885135</v>
+        <v>6.623023479938468</v>
       </c>
       <c r="J9">
-        <v>0.4508969314012603</v>
+        <v>0.3160753154066356</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3378394619941503</v>
+        <v>0.2241923068911262</v>
       </c>
       <c r="D10">
-        <v>0.5338098751152529</v>
+        <v>0.1811780494228401</v>
       </c>
       <c r="E10">
-        <v>0.02179143460901578</v>
+        <v>0.06396486864055007</v>
       </c>
       <c r="F10">
-        <v>17.37777125376778</v>
+        <v>10.39005241784622</v>
       </c>
       <c r="G10">
-        <v>0.0005933160461988329</v>
+        <v>0.002556865943043868</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.77277773885135</v>
+        <v>7.195896567551245</v>
       </c>
       <c r="J10">
-        <v>0.4508969314012603</v>
+        <v>0.333194154190366</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3378394619941503</v>
+        <v>0.2306045628631068</v>
       </c>
       <c r="D11">
-        <v>0.5338098751152529</v>
+        <v>0.194866199760213</v>
       </c>
       <c r="E11">
-        <v>0.02179143460901578</v>
+        <v>0.06372008461891809</v>
       </c>
       <c r="F11">
-        <v>17.37777125376778</v>
+        <v>10.74586501054267</v>
       </c>
       <c r="G11">
-        <v>0.0005933160461988329</v>
+        <v>0.002544370028982779</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.77277773885135</v>
+        <v>7.464742341545332</v>
       </c>
       <c r="J11">
-        <v>0.4508969314012603</v>
+        <v>0.3413319376061423</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3378394619941503</v>
+        <v>0.2330703087471591</v>
       </c>
       <c r="D12">
-        <v>0.5338098751152529</v>
+        <v>0.2000769047677409</v>
       </c>
       <c r="E12">
-        <v>0.02179143460901578</v>
+        <v>0.06363176626002875</v>
       </c>
       <c r="F12">
-        <v>17.37777125376778</v>
+        <v>10.88237983455616</v>
       </c>
       <c r="G12">
-        <v>0.0005933160461988329</v>
+        <v>0.002539706638128266</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.77277773885135</v>
+        <v>7.567806037219441</v>
       </c>
       <c r="J12">
-        <v>0.4508969314012603</v>
+        <v>0.3444663693262271</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3378394619941503</v>
+        <v>0.2325375639504159</v>
       </c>
       <c r="D13">
-        <v>0.5338098751152529</v>
+        <v>0.1989534193574514</v>
       </c>
       <c r="E13">
-        <v>0.02179143460901578</v>
+        <v>0.06365059219861635</v>
       </c>
       <c r="F13">
-        <v>17.37777125376778</v>
+        <v>10.85289831267193</v>
       </c>
       <c r="G13">
-        <v>0.0005933160461988329</v>
+        <v>0.00254070795507799</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.77277773885135</v>
+        <v>7.545552298190273</v>
       </c>
       <c r="J13">
-        <v>0.4508969314012603</v>
+        <v>0.343788923233177</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3378394619941503</v>
+        <v>0.2308066570757319</v>
       </c>
       <c r="D14">
-        <v>0.5338098751152529</v>
+        <v>0.1952943215658536</v>
       </c>
       <c r="E14">
-        <v>0.02179143460901578</v>
+        <v>0.06371273077778916</v>
       </c>
       <c r="F14">
-        <v>17.37777125376778</v>
+        <v>10.75705998972848</v>
       </c>
       <c r="G14">
-        <v>0.0005933160461988329</v>
+        <v>0.00254398500245547</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.77277773885135</v>
+        <v>7.47319582042212</v>
       </c>
       <c r="J14">
-        <v>0.4508969314012603</v>
+        <v>0.3415887358666652</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3378394619941503</v>
+        <v>0.2297513772039963</v>
       </c>
       <c r="D15">
-        <v>0.5338098751152529</v>
+        <v>0.1930566714445945</v>
       </c>
       <c r="E15">
-        <v>0.02179143460901578</v>
+        <v>0.06375136303317142</v>
       </c>
       <c r="F15">
-        <v>17.37777125376778</v>
+        <v>10.69859056311248</v>
       </c>
       <c r="G15">
-        <v>0.0005933160461988329</v>
+        <v>0.002546001175899074</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.77277773885135</v>
+        <v>7.429041384337552</v>
       </c>
       <c r="J15">
-        <v>0.4508969314012603</v>
+        <v>0.3402480126897558</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3378394619941503</v>
+        <v>0.2237784006959487</v>
       </c>
       <c r="D16">
-        <v>0.5338098751152529</v>
+        <v>0.1802871389875236</v>
       </c>
       <c r="E16">
-        <v>0.02179143460901578</v>
+        <v>0.06398147696503109</v>
       </c>
       <c r="F16">
-        <v>17.37777125376778</v>
+        <v>10.36704236982979</v>
       </c>
       <c r="G16">
-        <v>0.0005933160461988329</v>
+        <v>0.002557692242748788</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.77277773885135</v>
+        <v>7.178498824053463</v>
       </c>
       <c r="J16">
-        <v>0.4508969314012603</v>
+        <v>0.3326695870508587</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3378394619941503</v>
+        <v>0.2201789975725603</v>
       </c>
       <c r="D17">
-        <v>0.5338098751152529</v>
+        <v>0.1724985986837737</v>
       </c>
       <c r="E17">
-        <v>0.02179143460901578</v>
+        <v>0.06413041443741641</v>
       </c>
       <c r="F17">
-        <v>17.37777125376778</v>
+        <v>10.16670623438858</v>
       </c>
       <c r="G17">
-        <v>0.0005933160461988329</v>
+        <v>0.002564987800615033</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.77277773885135</v>
+        <v>7.026960502195266</v>
       </c>
       <c r="J17">
-        <v>0.4508969314012603</v>
+        <v>0.3281118998069275</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3378394619941503</v>
+        <v>0.2181319297390587</v>
       </c>
       <c r="D18">
-        <v>0.5338098751152529</v>
+        <v>0.1680344134773009</v>
       </c>
       <c r="E18">
-        <v>0.02179143460901578</v>
+        <v>0.06421892784424088</v>
       </c>
       <c r="F18">
-        <v>17.37777125376778</v>
+        <v>10.05257096379472</v>
       </c>
       <c r="G18">
-        <v>0.0005933160461988329</v>
+        <v>0.002569229795923866</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.77277773885135</v>
+        <v>6.940570972344005</v>
       </c>
       <c r="J18">
-        <v>0.4508969314012603</v>
+        <v>0.3255232593852213</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3378394619941503</v>
+        <v>0.2174427581040845</v>
       </c>
       <c r="D19">
-        <v>0.5338098751152529</v>
+        <v>0.16652549787608</v>
       </c>
       <c r="E19">
-        <v>0.02179143460901578</v>
+        <v>0.06424938556283877</v>
       </c>
       <c r="F19">
-        <v>17.37777125376778</v>
+        <v>10.01411152534206</v>
       </c>
       <c r="G19">
-        <v>0.0005933160461988329</v>
+        <v>0.002570673964385196</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.77277773885135</v>
+        <v>6.911451295156439</v>
       </c>
       <c r="J19">
-        <v>0.4508969314012603</v>
+        <v>0.324652354728272</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3378394619941503</v>
+        <v>0.2205597441283089</v>
       </c>
       <c r="D20">
-        <v>0.5338098751152529</v>
+        <v>0.1733260673155996</v>
       </c>
       <c r="E20">
-        <v>0.02179143460901578</v>
+        <v>0.06411426482688576</v>
       </c>
       <c r="F20">
-        <v>17.37777125376778</v>
+        <v>10.18791857106817</v>
       </c>
       <c r="G20">
-        <v>0.0005933160461988329</v>
+        <v>0.002564206446709621</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.77277773885135</v>
+        <v>7.043011676941944</v>
       </c>
       <c r="J20">
-        <v>0.4508969314012603</v>
+        <v>0.3285936592506005</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3378394619941503</v>
+        <v>0.2313140311186999</v>
       </c>
       <c r="D21">
-        <v>0.5338098751152529</v>
+        <v>0.1963683200738444</v>
       </c>
       <c r="E21">
-        <v>0.02179143460901578</v>
+        <v>0.06369436021972419</v>
       </c>
       <c r="F21">
-        <v>17.37777125376778</v>
+        <v>10.78516101602696</v>
       </c>
       <c r="G21">
-        <v>0.0005933160461988329</v>
+        <v>0.002543020604396139</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.77277773885135</v>
+        <v>7.494413943779307</v>
       </c>
       <c r="J21">
-        <v>0.4508969314012603</v>
+        <v>0.3422335302186781</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3378394619941503</v>
+        <v>0.2385624967851925</v>
       </c>
       <c r="D22">
-        <v>0.5338098751152529</v>
+        <v>0.2115884943534923</v>
       </c>
       <c r="E22">
-        <v>0.02179143460901578</v>
+        <v>0.06344544705114785</v>
       </c>
       <c r="F22">
-        <v>17.37777125376778</v>
+        <v>11.18589639511987</v>
       </c>
       <c r="G22">
-        <v>0.0005933160461988329</v>
+        <v>0.002529573310535397</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.77277773885135</v>
+        <v>7.796798367749204</v>
       </c>
       <c r="J22">
-        <v>0.4508969314012603</v>
+        <v>0.351457145426437</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3378394619941503</v>
+        <v>0.2346730706479718</v>
       </c>
       <c r="D23">
-        <v>0.5338098751152529</v>
+        <v>0.2034493933965109</v>
       </c>
       <c r="E23">
-        <v>0.02179143460901578</v>
+        <v>0.06357595385176573</v>
       </c>
       <c r="F23">
-        <v>17.37777125376778</v>
+        <v>10.97103088502973</v>
       </c>
       <c r="G23">
-        <v>0.0005933160461988329</v>
+        <v>0.002536714323296453</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.77277773885135</v>
+        <v>7.634711082091201</v>
       </c>
       <c r="J23">
-        <v>0.4508969314012603</v>
+        <v>0.346505192616732</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3378394619941503</v>
+        <v>0.2203875393662713</v>
       </c>
       <c r="D24">
-        <v>0.5338098751152529</v>
+        <v>0.1729519267806552</v>
       </c>
       <c r="E24">
-        <v>0.02179143460901578</v>
+        <v>0.06412155707429434</v>
       </c>
       <c r="F24">
-        <v>17.37777125376778</v>
+        <v>10.17832523959248</v>
       </c>
       <c r="G24">
-        <v>0.0005933160461988329</v>
+        <v>0.002564559548046727</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.77277773885135</v>
+        <v>7.035752666648875</v>
       </c>
       <c r="J24">
-        <v>0.4508969314012603</v>
+        <v>0.3283757574549071</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3378394619941503</v>
+        <v>0.2058588626371716</v>
       </c>
       <c r="D25">
-        <v>0.5338098751152529</v>
+        <v>0.1406393807139921</v>
       </c>
       <c r="E25">
-        <v>0.02179143460901578</v>
+        <v>0.06481891287802277</v>
       </c>
       <c r="F25">
-        <v>17.37777125376778</v>
+        <v>9.364689707039133</v>
       </c>
       <c r="G25">
-        <v>0.0005933160461988329</v>
+        <v>0.002596350418112558</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.77277773885135</v>
+        <v>6.418905353816967</v>
       </c>
       <c r="J25">
-        <v>0.4508969314012603</v>
+        <v>0.3100661645182612</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_204/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.195850223101047</v>
+        <v>0.3645174145736405</v>
       </c>
       <c r="D2">
-        <v>0.1172342349564417</v>
+        <v>0.5788626599063491</v>
       </c>
       <c r="E2">
-        <v>0.06542532866897943</v>
+        <v>0.02212807280367635</v>
       </c>
       <c r="F2">
-        <v>8.797736409583138</v>
+        <v>18.74657109982752</v>
       </c>
       <c r="G2">
-        <v>0.002621317206611285</v>
+        <v>0.000575008462927956</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.987256124705027</v>
+        <v>13.78897146611303</v>
       </c>
       <c r="J2">
-        <v>0.2975686261524544</v>
+        <v>0.4850405945516911</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1894650465831376</v>
+        <v>0.2935744038253176</v>
       </c>
       <c r="D3">
-        <v>0.1015593299188424</v>
+        <v>0.4585427534837976</v>
       </c>
       <c r="E3">
-        <v>0.06589401896875469</v>
+        <v>0.02128369021329224</v>
       </c>
       <c r="F3">
-        <v>8.431914133496775</v>
+        <v>15.09241075569719</v>
       </c>
       <c r="G3">
-        <v>0.002639233995556186</v>
+        <v>0.000625349227268916</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.707567514090073</v>
+        <v>11.07544190007721</v>
       </c>
       <c r="J3">
-        <v>0.2896717718495267</v>
+        <v>0.3940305692083257</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1857308733915488</v>
+        <v>0.2576827267461255</v>
       </c>
       <c r="D4">
-        <v>0.09201031273008198</v>
+        <v>0.3969260940049821</v>
       </c>
       <c r="E4">
-        <v>0.06621019150026708</v>
+        <v>0.0209310618378673</v>
       </c>
       <c r="F4">
-        <v>8.215872885662236</v>
+        <v>13.226280809586</v>
       </c>
       <c r="G4">
-        <v>0.002650734124033312</v>
+        <v>0.0006531301126716246</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.541798128588084</v>
+        <v>9.688638244557438</v>
       </c>
       <c r="J4">
-        <v>0.2850930252608634</v>
+        <v>0.3477529338915986</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1842546618158849</v>
+        <v>0.2442629098710967</v>
       </c>
       <c r="D5">
-        <v>0.08813564783315542</v>
+        <v>0.3737214016549757</v>
       </c>
       <c r="E5">
-        <v>0.06634616491361545</v>
+        <v>0.02081615976439011</v>
       </c>
       <c r="F5">
-        <v>8.129920768793681</v>
+        <v>12.52545768251008</v>
       </c>
       <c r="G5">
-        <v>0.002655547100596732</v>
+        <v>0.0006640124099797607</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.47569267211523</v>
+        <v>9.167582561802561</v>
       </c>
       <c r="J5">
-        <v>0.2832932862341551</v>
+        <v>0.3304170350925517</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1840122468705658</v>
+        <v>0.2420939725041507</v>
       </c>
       <c r="D6">
-        <v>0.08749320094126745</v>
+        <v>0.3699613863123972</v>
       </c>
       <c r="E6">
-        <v>0.06636917360724226</v>
+        <v>0.02079857606878921</v>
       </c>
       <c r="F6">
-        <v>8.115772511589796</v>
+        <v>12.4120280322461</v>
       </c>
       <c r="G6">
-        <v>0.002656353967422469</v>
+        <v>0.0006657994265595411</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.464801821958417</v>
+        <v>9.083234364814615</v>
       </c>
       <c r="J6">
-        <v>0.2829983857939453</v>
+        <v>0.3276136796732487</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1857107822452519</v>
+        <v>0.2574975013560277</v>
       </c>
       <c r="D7">
-        <v>0.0919579933030974</v>
+        <v>0.3966064850027067</v>
       </c>
       <c r="E7">
-        <v>0.06621199642546749</v>
+        <v>0.0209294072653945</v>
       </c>
       <c r="F7">
-        <v>8.21470534769594</v>
+        <v>13.21661937337075</v>
       </c>
       <c r="G7">
-        <v>0.002650798519708827</v>
+        <v>0.0006532783398002673</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.540900815911385</v>
+        <v>9.681456042901289</v>
       </c>
       <c r="J7">
-        <v>0.2850684878173979</v>
+        <v>0.3475137696536308</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1936090963423283</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D8">
-        <v>0.1118124364938069</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E8">
-        <v>0.06558103358790834</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F8">
-        <v>8.66977812463756</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G8">
-        <v>0.002627391967418093</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.889550416796624</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J8">
-        <v>0.2947886871179577</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2106414648431496</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D9">
-        <v>0.1514564176476085</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E9">
-        <v>0.0645695280185361</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F9">
-        <v>9.633548469433379</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G9">
-        <v>0.002585402634298316</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.623023479938468</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J9">
-        <v>0.3160753154066356</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2241923068911262</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D10">
-        <v>0.1811780494228401</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E10">
-        <v>0.06396486864055007</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F10">
-        <v>10.39005241784622</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G10">
-        <v>0.002556865943043868</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.195896567551245</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J10">
-        <v>0.333194154190366</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2306045628631068</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D11">
-        <v>0.194866199760213</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E11">
-        <v>0.06372008461891809</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F11">
-        <v>10.74586501054267</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G11">
-        <v>0.002544370028982779</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.464742341545332</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J11">
-        <v>0.3413319376061423</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2330703087471591</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D12">
-        <v>0.2000769047677409</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E12">
-        <v>0.06363176626002875</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F12">
-        <v>10.88237983455616</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G12">
-        <v>0.002539706638128266</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.567806037219441</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J12">
-        <v>0.3444663693262271</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2325375639504159</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D13">
-        <v>0.1989534193574514</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E13">
-        <v>0.06365059219861635</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F13">
-        <v>10.85289831267193</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G13">
-        <v>0.00254070795507799</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.545552298190273</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J13">
-        <v>0.343788923233177</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2308066570757319</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D14">
-        <v>0.1952943215658536</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E14">
-        <v>0.06371273077778916</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F14">
-        <v>10.75705998972848</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G14">
-        <v>0.00254398500245547</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.47319582042212</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J14">
-        <v>0.3415887358666652</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2297513772039963</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D15">
-        <v>0.1930566714445945</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E15">
-        <v>0.06375136303317142</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F15">
-        <v>10.69859056311248</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G15">
-        <v>0.002546001175899074</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.429041384337552</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J15">
-        <v>0.3402480126897558</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2237784006959487</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D16">
-        <v>0.1802871389875236</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E16">
-        <v>0.06398147696503109</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F16">
-        <v>10.36704236982979</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G16">
-        <v>0.002557692242748788</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.178498824053463</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J16">
-        <v>0.3326695870508587</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2201789975725603</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D17">
-        <v>0.1724985986837737</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E17">
-        <v>0.06413041443741641</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F17">
-        <v>10.16670623438858</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G17">
-        <v>0.002564987800615033</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.026960502195266</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J17">
-        <v>0.3281118998069275</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2181319297390587</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D18">
-        <v>0.1680344134773009</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E18">
-        <v>0.06421892784424088</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F18">
-        <v>10.05257096379472</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G18">
-        <v>0.002569229795923866</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.940570972344005</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J18">
-        <v>0.3255232593852213</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2174427581040845</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D19">
-        <v>0.16652549787608</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E19">
-        <v>0.06424938556283877</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F19">
-        <v>10.01411152534206</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G19">
-        <v>0.002570673964385196</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.911451295156439</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J19">
-        <v>0.324652354728272</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2205597441283089</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D20">
-        <v>0.1733260673155996</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E20">
-        <v>0.06411426482688576</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F20">
-        <v>10.18791857106817</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G20">
-        <v>0.002564206446709621</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.043011676941944</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J20">
-        <v>0.3285936592506005</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2313140311186999</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D21">
-        <v>0.1963683200738444</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E21">
-        <v>0.06369436021972419</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F21">
-        <v>10.78516101602696</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G21">
-        <v>0.002543020604396139</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.494413943779307</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J21">
-        <v>0.3422335302186781</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2385624967851925</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D22">
-        <v>0.2115884943534923</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E22">
-        <v>0.06344544705114785</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F22">
-        <v>11.18589639511987</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G22">
-        <v>0.002529573310535397</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.796798367749204</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J22">
-        <v>0.351457145426437</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2346730706479718</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D23">
-        <v>0.2034493933965109</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E23">
-        <v>0.06357595385176573</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F23">
-        <v>10.97103088502973</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G23">
-        <v>0.002536714323296453</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.634711082091201</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J23">
-        <v>0.346505192616732</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2203875393662713</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D24">
-        <v>0.1729519267806552</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E24">
-        <v>0.06412155707429434</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F24">
-        <v>10.17832523959248</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G24">
-        <v>0.002564559548046727</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.035752666648875</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J24">
-        <v>0.3283757574549071</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2058588626371716</v>
+        <v>0.3378394619945482</v>
       </c>
       <c r="D25">
-        <v>0.1406393807139921</v>
+        <v>0.5338098751153666</v>
       </c>
       <c r="E25">
-        <v>0.06481891287802277</v>
+        <v>0.021791434609014</v>
       </c>
       <c r="F25">
-        <v>9.364689707039133</v>
+        <v>17.37777125376783</v>
       </c>
       <c r="G25">
-        <v>0.002596350418112558</v>
+        <v>0.0005933160463880323</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.418905353816967</v>
+        <v>12.77277773885137</v>
       </c>
       <c r="J25">
-        <v>0.3100661645182612</v>
+        <v>0.4508969314010329</v>
       </c>
       <c r="K25">
         <v>0</v>
